--- a/08.Pteron/01.CTC/TMC/outputs/20260126/現状ワークフロー/TMC_CHG_20260127_現状業務フロー図_v0.1.xlsx
+++ b/08.Pteron/01.CTC/TMC/outputs/20260126/現状ワークフロー/TMC_CHG_20260127_現状業務フロー図_v0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z5j7202\WorkSpaces\08.Pteron\01.CTC\TMC\outputs\20260126\現状ワークフロー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD417D3-1795-4FC5-9788-C1BBCB7FF80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7280EA34-16AA-47F7-9B23-06A5FF605348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6075" yWindow="-17655" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6555" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="①商談～工事完了フロー" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="471">
   <si>
     <t>No.</t>
   </si>
@@ -767,9 +767,6 @@
   </si>
   <si>
     <t>【参考】登場するシステム/ツール一覧</t>
-  </si>
-  <si>
-    <t>TMC資料p.5,議事録2.3</t>
   </si>
   <si>
     <t>-</t>
@@ -801,9 +798,6 @@
     <t>工事記録管理</t>
   </si>
   <si>
-    <t>TMC資料p.3</t>
-  </si>
-  <si>
     <t>工事記録書</t>
   </si>
   <si>
@@ -835,9 +829,6 @@
     <t>販売店からTMCへ工事記録書を転送</t>
   </si>
   <si>
-    <t>議事録2.1</t>
-  </si>
-  <si>
     <t>トヨタホーム以外の送付方法は？</t>
   </si>
   <si>
@@ -851,9 +842,6 @@
   </si>
   <si>
     <t>販売店へ送付</t>
-  </si>
-  <si>
-    <t>TMC資料p.5</t>
   </si>
   <si>
     <t>フォーマット統一の意向は？</t>
@@ -883,9 +871,6 @@
     <t>工事記録書作成</t>
   </si>
   <si>
-    <t>TMC資料p.4,5</t>
-  </si>
-  <si>
     <t>工事完了報告書のフォーマットは？</t>
   </si>
   <si>
@@ -918,9 +903,6 @@
     <t>施工・完了</t>
   </si>
   <si>
-    <t>TMC資料p.4</t>
-  </si>
-  <si>
     <t>施工中の写真撮影ツールは？</t>
   </si>
   <si>
@@ -937,9 +919,6 @@
   </si>
   <si>
     <t>施工実施</t>
-  </si>
-  <si>
-    <t>議事録2.2</t>
   </si>
   <si>
     <t>どちらのパターンが多いか？</t>
@@ -1042,9 +1021,6 @@
     <t>【判断】設置可否</t>
   </si>
   <si>
-    <t>TMC資料p.4,議事録2.2</t>
-  </si>
-  <si>
     <t>工事計画書の作成ツールは？
 フォーマットは統一？</t>
   </si>
@@ -1077,9 +1053,6 @@
   </si>
   <si>
     <t>施工管理会社が施工会社を手配・依頼</t>
-  </si>
-  <si>
-    <t>議事録2.2,TMC資料p.4</t>
   </si>
   <si>
     <t>他社の依頼方法は？
@@ -1258,9 +1231,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>議事録2.3</t>
-  </si>
-  <si>
     <t>Excel手作業での分析</t>
   </si>
   <si>
@@ -1345,9 +1315,6 @@
   </si>
   <si>
     <t>分析・管理</t>
-  </si>
-  <si>
-    <t>議事録3.1</t>
   </si>
   <si>
     <t>仕入先への分析依頼フォーマットは？</t>
@@ -1943,33 +1910,6 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1982,19 +1922,46 @@
     <xf numFmtId="0" fontId="15" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2299,8 +2266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF3355A-1F38-4EF0-B39D-DB2E48829F88}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView zoomScale="126" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2323,98 +2290,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
+      <c r="A1" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
     </row>
     <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
+      <c r="A2" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="N3" s="21" t="s">
+      <c r="D3" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="O3" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="P3" s="21" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="L3" s="31"/>
+      <c r="M3" s="35" t="s">
+        <v>372</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="P3" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="R3" s="21" t="s">
+      <c r="Q3" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="R3" s="35" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="20" t="s">
         <v>2</v>
       </c>
@@ -2434,36 +2401,36 @@
         <v>6</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
+        <v>367</v>
+      </c>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
     </row>
     <row r="5" spans="1:18" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
         <v>1</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>352</v>
+      <c r="B5" s="32" t="s">
+        <v>343</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -2476,38 +2443,36 @@
         <v>56</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>295</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:18" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15">
         <v>2</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="11" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -2517,41 +2482,39 @@
         <v>243</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>295</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:18" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15">
         <v>3</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -2561,135 +2524,129 @@
         <v>56</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>295</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:18" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15">
         <v>4</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>352</v>
+      <c r="B8" s="32" t="s">
+        <v>343</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="14" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="P8" s="12" t="s">
         <v>47</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>344</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="R8" s="11"/>
     </row>
     <row r="9" spans="1:18" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15">
         <v>5</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="16" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>56</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>302</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="R9" s="11"/>
     </row>
     <row r="10" spans="1:18" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15">
         <v>6</v>
       </c>
-      <c r="B10" s="26"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -2700,87 +2657,83 @@
         <v>56</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="N10" s="34" t="s">
-        <v>386</v>
+        <v>327</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>377</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="P10" s="12" t="s">
         <v>57</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>333</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="R10" s="11"/>
     </row>
     <row r="11" spans="1:18" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>7</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="18" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="P11" s="11"/>
       <c r="Q11" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>295</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>8</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="16" t="s">
@@ -2790,40 +2743,38 @@
         <v>56</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>295</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>9</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="11" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -2831,228 +2782,218 @@
         <v>56</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="P13" s="11"/>
       <c r="Q13" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>295</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:18" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>10</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>309</v>
+      <c r="B14" s="32" t="s">
+        <v>302</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P14" s="11"/>
       <c r="Q14" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>302</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:18" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>11</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="11" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L15" s="16" t="s">
         <v>56</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="P15" s="11"/>
       <c r="Q15" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>295</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="R15" s="11"/>
     </row>
     <row r="16" spans="1:18" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>12</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>294</v>
+      <c r="B16" s="32" t="s">
+        <v>289</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L16" s="16" t="s">
         <v>56</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="P16" s="12" t="s">
         <v>63</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>284</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="R16" s="11"/>
     </row>
     <row r="17" spans="1:18" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>13</v>
       </c>
-      <c r="B17" s="26"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="16" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P17" s="12" t="s">
         <v>15</v>
       </c>
       <c r="Q17" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="R17" s="11" t="s">
-        <v>275</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="R17" s="11"/>
     </row>
     <row r="18" spans="1:18" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>14</v>
       </c>
-      <c r="B18" s="26"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -3064,80 +3005,76 @@
         <v>227</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P18" s="12" t="s">
         <v>85</v>
       </c>
       <c r="Q18" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="R18" s="11" t="s">
-        <v>269</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="R18" s="11"/>
     </row>
     <row r="19" spans="1:18" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
         <v>15</v>
       </c>
-      <c r="B19" s="26"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>227</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>248</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="R19" s="11"/>
     </row>
     <row r="20" spans="1:18" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15">
         <v>16</v>
       </c>
-      <c r="B20" s="27"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -3145,43 +3082,41 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L20" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="O20" s="11" t="s">
         <v>249</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="N20" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>250</v>
       </c>
       <c r="P20" s="11"/>
       <c r="Q20" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>258</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="R20" s="11"/>
     </row>
     <row r="21" spans="1:18" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15">
         <v>17</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -3189,32 +3124,30 @@
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L21" s="14" t="s">
         <v>230</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P21" s="12" t="s">
         <v>18</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="R21" s="11" t="s">
         <v>248</v>
       </c>
+      <c r="R21" s="11"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
@@ -3222,196 +3155,171 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30" t="s">
+      <c r="F26" s="28"/>
+      <c r="G26" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="30"/>
+      <c r="H26" s="28"/>
     </row>
     <row r="27" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="31" t="s">
+      <c r="F27" s="27"/>
+      <c r="G27" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="H27" s="31"/>
+      <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29" t="s">
+      <c r="F28" s="27"/>
+      <c r="G28" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="H28" s="29"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="E29" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29" t="s">
+      <c r="F29" s="27"/>
+      <c r="G29" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="H29" s="29"/>
+      <c r="H29" s="27"/>
     </row>
     <row r="30" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="E30" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29" t="s">
+      <c r="F30" s="27"/>
+      <c r="G30" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="H30" s="29"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29" t="s">
+      <c r="F31" s="27"/>
+      <c r="G31" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="H31" s="29"/>
+      <c r="H31" s="27"/>
     </row>
     <row r="32" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29" t="s">
+      <c r="F32" s="27"/>
+      <c r="G32" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="H32" s="29"/>
+      <c r="H32" s="27"/>
     </row>
     <row r="33" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29" t="s">
+      <c r="F33" s="27"/>
+      <c r="G33" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="H33" s="29"/>
+      <c r="H33" s="27"/>
     </row>
     <row r="34" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29" t="s">
+      <c r="F34" s="27"/>
+      <c r="G34" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="H34" s="29"/>
+      <c r="H34" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B16:B20"/>
@@ -3428,8 +3336,33 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3440,9 +3373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CFAEE3-F60D-4828-9AC2-5DDA8D8DC2F5}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3466,705 +3399,671 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>481</v>
+      <c r="A1" s="26" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+    </row>
+    <row r="3" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="T3" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="U3" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+    </row>
+    <row r="5" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="22">
+        <v>1</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>468</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+    </row>
+    <row r="6" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="22">
+        <v>2</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="22">
+        <v>3</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+    </row>
+    <row r="8" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="22">
+        <v>4</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+    </row>
+    <row r="9" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="22">
+        <v>5</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="T9" s="23"/>
+      <c r="U9" s="22"/>
+    </row>
+    <row r="10" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="22">
+        <v>6</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="S10" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+    </row>
+    <row r="11" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="22">
+        <v>7</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="S11" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="T11" s="23"/>
+      <c r="U11" s="22"/>
+    </row>
+    <row r="12" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="22">
+        <v>8</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="P12" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="22">
+        <v>9</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="L13" s="22"/>
+      <c r="M13" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+    </row>
+    <row r="14" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="22">
+        <v>10</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q14" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="R14" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="S14" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="22">
+        <v>11</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="S15" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+    </row>
+    <row r="16" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="22">
+        <v>12</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="L16" s="22"/>
+      <c r="M16" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="P16" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="R16" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-    </row>
-    <row r="3" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="40" t="s">
+      <c r="S16" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>388</v>
-      </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="40" t="s">
-        <v>382</v>
-      </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="40" t="s">
-        <v>381</v>
-      </c>
-      <c r="P3" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q3" s="40" t="s">
-        <v>379</v>
-      </c>
-      <c r="R3" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="40" t="s">
-        <v>378</v>
-      </c>
-      <c r="T3" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="U3" s="40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="39" t="s">
-        <v>480</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>377</v>
-      </c>
-      <c r="N4" s="39" t="s">
-        <v>376</v>
-      </c>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-    </row>
-    <row r="5" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="35">
-        <v>1</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>479</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>478</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>477</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>476</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="35" t="s">
-        <v>475</v>
-      </c>
-      <c r="O5" s="35" t="s">
-        <v>474</v>
-      </c>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35" t="s">
-        <v>370</v>
-      </c>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35" t="s">
-        <v>473</v>
-      </c>
-      <c r="T5" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="U5" s="35"/>
-    </row>
-    <row r="6" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="35">
-        <v>2</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>472</v>
-      </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35" t="s">
-        <v>471</v>
-      </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="35" t="s">
-        <v>470</v>
-      </c>
-      <c r="O6" s="35" t="s">
-        <v>469</v>
-      </c>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="R6" s="37" t="s">
-        <v>468</v>
-      </c>
-      <c r="S6" s="35" t="s">
-        <v>467</v>
-      </c>
-      <c r="T6" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="U6" s="35" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="35">
-        <v>3</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="35" t="s">
-        <v>465</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>464</v>
-      </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35" t="s">
-        <v>463</v>
-      </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35" t="s">
-        <v>462</v>
-      </c>
-      <c r="P7" s="35" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q7" s="35" t="s">
-        <v>415</v>
-      </c>
-      <c r="R7" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="S7" s="35" t="s">
-        <v>460</v>
-      </c>
-      <c r="T7" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="U7" s="35"/>
-    </row>
-    <row r="8" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="35">
-        <v>4</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>458</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>457</v>
-      </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>455</v>
-      </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>454</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>453</v>
-      </c>
-      <c r="P8" s="35" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q8" s="35" t="s">
-        <v>451</v>
-      </c>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35" t="s">
-        <v>450</v>
-      </c>
-      <c r="T8" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="U8" s="35"/>
-    </row>
-    <row r="9" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="35">
-        <v>5</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="35" t="s">
-        <v>449</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>448</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35" t="s">
-        <v>447</v>
-      </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35" t="s">
-        <v>445</v>
-      </c>
-      <c r="T9" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="U9" s="35"/>
-    </row>
-    <row r="10" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="35">
-        <v>6</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>444</v>
-      </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" s="35" t="s">
-        <v>443</v>
-      </c>
-      <c r="O10" s="35" t="s">
-        <v>442</v>
-      </c>
-      <c r="P10" s="35" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q10" s="35" t="s">
-        <v>404</v>
-      </c>
-      <c r="R10" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="S10" s="35" t="s">
-        <v>440</v>
-      </c>
-      <c r="T10" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="U10" s="35"/>
-    </row>
-    <row r="11" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="35">
-        <v>7</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>439</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35" t="s">
-        <v>436</v>
-      </c>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35" t="s">
-        <v>435</v>
-      </c>
-      <c r="R11" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="S11" s="35" t="s">
-        <v>434</v>
-      </c>
-      <c r="T11" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="U11" s="35"/>
-    </row>
-    <row r="12" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="35">
-        <v>8</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>433</v>
-      </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N12" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="O12" s="35" t="s">
-        <v>432</v>
-      </c>
-      <c r="P12" s="35" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q12" s="35" t="s">
-        <v>430</v>
-      </c>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35" t="s">
-        <v>429</v>
-      </c>
-      <c r="T12" s="35" t="s">
-        <v>421</v>
-      </c>
-      <c r="U12" s="35" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="35">
-        <v>9</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="L13" s="35"/>
-      <c r="M13" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" s="35" t="s">
-        <v>425</v>
-      </c>
-      <c r="O13" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35" t="s">
-        <v>423</v>
-      </c>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="T13" s="35" t="s">
-        <v>421</v>
-      </c>
-      <c r="U13" s="35"/>
-    </row>
-    <row r="14" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="35">
-        <v>10</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>420</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>419</v>
-      </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35" t="s">
-        <v>418</v>
-      </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35" t="s">
-        <v>399</v>
-      </c>
-      <c r="O14" s="35" t="s">
-        <v>417</v>
-      </c>
-      <c r="P14" s="35" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q14" s="35" t="s">
-        <v>415</v>
-      </c>
-      <c r="R14" s="37" t="s">
-        <v>414</v>
-      </c>
-      <c r="S14" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="T14" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="U14" s="35" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="35">
-        <v>11</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>410</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N15" s="35" t="s">
-        <v>407</v>
-      </c>
-      <c r="O15" s="35" t="s">
-        <v>406</v>
-      </c>
-      <c r="P15" s="35" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q15" s="35" t="s">
-        <v>404</v>
-      </c>
-      <c r="R15" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="S15" s="35" t="s">
-        <v>403</v>
-      </c>
-      <c r="T15" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="U15" s="35"/>
-    </row>
-    <row r="16" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="35">
-        <v>12</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>402</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35" t="s">
-        <v>401</v>
-      </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="L16" s="35"/>
-      <c r="M16" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N16" s="35" t="s">
-        <v>399</v>
-      </c>
-      <c r="O16" s="35" t="s">
-        <v>398</v>
-      </c>
-      <c r="P16" s="35" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q16" s="35" t="s">
-        <v>396</v>
-      </c>
-      <c r="R16" s="35" t="s">
-        <v>395</v>
-      </c>
-      <c r="S16" s="35" t="s">
-        <v>394</v>
-      </c>
-      <c r="T16" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="U16" s="35"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="E3:L3"/>
@@ -4173,6 +4072,16 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="O3:O4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4204,36 +4113,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="4" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -5176,12 +5085,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
